--- a/Sample Parts-List.xlsx
+++ b/Sample Parts-List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61903FF0-BAF2-4FC6-9951-64779390E28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7348ECB-6216-4DF4-A64F-B62BF0CF56EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>PC BATTERY HOLDER, 1/2AA, FOR ONE CELL, THROUGH HOLE MOUNT, T.R: -50C TO 145C</t>
   </si>
@@ -95,18 +95,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>PartNumber</t>
-  </si>
-  <si>
-    <t>ReferenceDesignators</t>
-  </si>
-  <si>
-    <t>PartDescription</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -146,20 +134,137 @@
     <t>R9-R10</t>
   </si>
   <si>
-    <t>R11-R12</t>
-  </si>
-  <si>
-    <t>R13-R18,R21,R23</t>
-  </si>
-  <si>
-    <t>C10-C13,C17</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Part Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Value required.
+Must be column A.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Part Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Value optional.
+Must be column C if present.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Value optional.
+Must be column D if present.
+Necessary to accurately compare stated Quantity to calculated Quantity.</t>
+    </r>
+  </si>
+  <si>
+    <t>C10-13,C17</t>
+  </si>
+  <si>
+    <t>R11-R13</t>
+  </si>
+  <si>
+    <t>R14-R18,R21,R23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reference Designators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Value required.
+Must be column B.
+Implicit ranges like C10-13 or C10-C13 permitted.
+Explicit ranges like C10,C11,C12,C13 permitted.
+Mixed ranges like C10-13,C17 or C10-C13,C17 permitted.
+Duplicate reference designators not permitted.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Parts-List Processor ignores the 1st row during processing, so a header row (possibly like this) is required.  Or a blank 1st row processes fine also.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -178,6 +283,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -229,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,6 +373,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,37 +760,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" style="5"/>
-    <col min="4" max="4" width="15.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="43.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -683,12 +807,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -697,12 +821,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
@@ -711,12 +835,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
@@ -725,12 +849,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -739,12 +863,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -753,12 +877,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -767,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -781,12 +905,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -795,12 +919,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -809,12 +933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -823,12 +947,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -837,12 +961,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>14</v>
@@ -851,12 +975,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -865,12 +989,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
@@ -890,7 +1014,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
@@ -898,7 +1022,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>

--- a/Sample Parts-List.xlsx
+++ b/Sample Parts-List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7348ECB-6216-4DF4-A64F-B62BF0CF56EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA138D-92E2-46DB-AA26-2A44B43F5F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,6 +134,12 @@
     <t>R9-R10</t>
   </si>
   <si>
+    <t>C10-13,C17</t>
+  </si>
+  <si>
+    <t>R11-R13</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -152,8 +158,43 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Value required.
-Must be column A.</t>
+- Value required.
+- Alpha-numeric up to 255 characters.
+- Must be column A.
+- Spaces will be removed if present.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reference Designators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Value required.
+- Alpha-numeric up to 40,000 characters.
+- Must be column B.
+- Implicit ranges like C10-13 or C10-C13 permitted.
+- Explicit ranges like C10,C11,C12,C13 permitted.
+- Mixed ranges like C10-13,C17,C18 or C10-C13,C17,C18 permitted.
+- Duplicate Reference Designators not permitted.
+- Simple Designators like CR1, RN10, UART100, etc. permitted; letter(s) followed by number(s).
+- Complex Designators like R1C2, X10Y20Z30, etc. not permitted; letter(s) followed by number(s) followed by letter(s) followed by number(s)....
+- Designators containing embedded hyphens (-) or commas (,) not permitted; both are designator separators.
+   - If necessary, replace with underscores (_) and semicolons (;) before processing, then restore to hyphens and commas after processing.
+- Spaces will be removed if present.</t>
     </r>
   </si>
   <si>
@@ -175,8 +216,31 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Value optional.
-Must be column C if present.</t>
+- Value optional.
+- Alpha-numeric up to 255 characters.
+- Must be column C if present.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Parts-List Processor ignores the 1st row during processing, so a place-holding header row is required.
+- This row is the default header row and processes fine, but can be customized as desired.
+- A blank 1st row processes fine also.</t>
     </r>
   </si>
   <si>
@@ -198,66 +262,14 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Value optional.
-Must be column D if present.
-Necessary to accurately compare stated Quantity to calculated Quantity.</t>
+- Value optional.
+- Numeric integer in inclusive range {1..32,767}.
+- Must be column D if present.
+- Used to optionally compare stated Quantity to calculated Quantity.</t>
     </r>
   </si>
   <si>
-    <t>C10-13,C17</t>
-  </si>
-  <si>
-    <t>R11-R13</t>
-  </si>
-  <si>
     <t>R14-R18,R21,R23</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reference Designators</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Value required.
-Must be column B.
-Implicit ranges like C10-13 or C10-C13 permitted.
-Explicit ranges like C10,C11,C12,C13 permitted.
-Mixed ranges like C10-13,C17 or C10-C13,C17 permitted.
-Duplicate reference designators not permitted.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Parts-List Processor ignores the 1st row during processing, so a header row (possibly like this) is required.  Or a blank 1st row processes fine also.</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -367,15 +379,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,34 +775,34 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.88671875" style="5" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" style="5"/>
     <col min="4" max="4" width="37.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="43.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="220.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
@@ -1008,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -1022,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -1036,7 +1048,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
